--- a/tiemposAlg.xlsx
+++ b/tiemposAlg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UNIVERSIDAD\4.CUARTO\ALG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UNIVERSIDAD\4.CUARTO\ALG\ALM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249464EF-AA45-4408-A102-28730825ADA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFDECE3-C7D8-47AE-BAA2-B4DD49276AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAA9FB15-D1BF-43F7-A2D8-C46FE27B5817}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="17280" windowHeight="8964" xr2:uid="{AAA9FB15-D1BF-43F7-A2D8-C46FE27B5817}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>levesteinTree_Word_PD</t>
   </si>
@@ -79,13 +79,58 @@
   </si>
   <si>
     <t>33,1727 - 58,28561</t>
+  </si>
+  <si>
+    <t>alexander@1</t>
+  </si>
+  <si>
+    <t>iluminación@1</t>
+  </si>
+  <si>
+    <t>virgen@1</t>
+  </si>
+  <si>
+    <t>planeta@1</t>
+  </si>
+  <si>
+    <t>alexander@2</t>
+  </si>
+  <si>
+    <t>capital@2</t>
+  </si>
+  <si>
+    <t>secuela@2</t>
+  </si>
+  <si>
+    <t>alexander@3</t>
+  </si>
+  <si>
+    <t>capital@3</t>
+  </si>
+  <si>
+    <t>permisos@3</t>
+  </si>
+  <si>
+    <t>alexander@5</t>
+  </si>
+  <si>
+    <t>iluminación@5</t>
+  </si>
+  <si>
+    <t>capital@5</t>
+  </si>
+  <si>
+    <t>dam_levesteinTree_Word_PD</t>
+  </si>
+  <si>
+    <t>dam_levesteinTrie_Word_Ramificacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +149,20 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -139,6 +198,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12A8F6-B260-4786-BDB7-8DC433D822BD}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,18 +529,27 @@
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -484,9 +558,16 @@
       <c r="C2">
         <v>2.3970000000000002E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5">
+        <v>30.44511</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -495,20 +576,34 @@
       <c r="C3">
         <v>1.6029999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5">
+        <v>37.790039999999998</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>24.1998</v>
       </c>
       <c r="C4">
         <v>2.7959999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5">
+        <v>20.119997999999999</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -517,9 +612,22 @@
       <c r="C5">
         <v>2.0015999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5">
+        <v>24.042190000000002</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -528,9 +636,16 @@
       <c r="C7">
         <v>0.71555999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5">
+        <v>30.188441000000001</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -539,9 +654,16 @@
       <c r="C8">
         <v>0.79654000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5">
+        <v>23.753399999999999</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -550,9 +672,22 @@
       <c r="C9">
         <v>0.81925999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5">
+        <v>24.701720999999999</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -561,9 +696,16 @@
       <c r="C11">
         <v>69.973579999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="E11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5">
+        <v>30.194710000000001</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -572,9 +714,16 @@
       <c r="C12">
         <v>56.848529999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5">
+        <v>23.737580000000001</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -583,42 +732,76 @@
       <c r="C13">
         <v>99.748360000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5">
+        <v>25.643844999999999</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="6">
+        <v>30.01848</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>45.505139999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="5">
+        <v>36.918849999999999</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B17">
         <v>24.41236</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="5">
+        <v>23.937799999999999</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
     </row>
   </sheetData>

--- a/tiemposAlg.xlsx
+++ b/tiemposAlg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UNIVERSIDAD\4.CUARTO\ALG\ALM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFDECE3-C7D8-47AE-BAA2-B4DD49276AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE8AD5E-42F7-4D0E-B558-F0F3C2A81023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="17280" windowHeight="8964" xr2:uid="{AAA9FB15-D1BF-43F7-A2D8-C46FE27B5817}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAA9FB15-D1BF-43F7-A2D8-C46FE27B5817}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>levesteinTree_Word_PD</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>iluminación%5</t>
-  </si>
-  <si>
-    <t>33,1727 - 58,28561</t>
   </si>
   <si>
     <t>alexander@1</t>
@@ -130,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,14 +138,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,17 +182,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,6 +210,1030 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Levenstein</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>levesteinTree_Word_PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26.668543999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.524751999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.352481666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.363400000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF6F-4D35-A2D4-6867BB8055FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>levesteinTrie_Word_Ramificacion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$20:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.1994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77712000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.523489999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF6F-4D35-A2D4-6867BB8055FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="403483456"/>
+        <c:axId val="403480176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="403483456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403480176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="403480176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403483456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA451AD4-A556-4A14-86A3-C19AC15B8248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12A8F6-B260-4786-BDB7-8DC433D822BD}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,14 +1557,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -558,16 +1573,16 @@
       <c r="C2">
         <v>2.3970000000000002E-2</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
         <v>30.44511</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -576,34 +1591,38 @@
       <c r="C3">
         <v>1.6029999999999999E-2</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
         <v>37.790039999999998</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4">
+        <v>1.205E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>24.1998</v>
       </c>
       <c r="C4">
         <v>2.7959999999999999E-2</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
         <v>20.119997999999999</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4">
+        <v>1.201E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -612,22 +1631,22 @@
       <c r="C5">
         <v>2.0015999999999999E-2</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4">
         <v>24.042190000000002</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -636,16 +1655,16 @@
       <c r="C7">
         <v>0.71555999999999997</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4">
         <v>30.188441000000001</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -654,16 +1673,16 @@
       <c r="C8">
         <v>0.79654000000000003</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4">
         <v>23.753399999999999</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -672,22 +1691,22 @@
       <c r="C9">
         <v>0.81925999999999999</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4">
         <v>24.701720999999999</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -696,16 +1715,16 @@
       <c r="C11">
         <v>69.973579999999998</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4">
         <v>30.194710000000001</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -714,16 +1733,16 @@
       <c r="C12">
         <v>56.848529999999997</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4">
         <v>23.737580000000001</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -732,80 +1751,167 @@
       <c r="C13">
         <v>99.748360000000005</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4">
+        <v>25.643844999999999</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>33.172699999999999</v>
+      </c>
+      <c r="C15">
+        <v>10000000000</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="5">
-        <v>25.643844999999999</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>30.01848</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>45.505139999999997</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="C16">
+        <v>10000000000</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4">
         <v>36.918849999999999</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17">
         <v>24.41236</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="C17">
+        <v>10000000000</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="4">
         <v>23.937799999999999</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="3"/>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F19">
+        <f>AVERAGE(F2,F3,F4,F5)</f>
+        <v>28.099334500000001</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
+      <c r="A20" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="B20">
+        <f>(B2+B3+B4+B5)/5</f>
+        <v>26.668543999999997</v>
+      </c>
+      <c r="C20" s="2">
+        <f>AVERAGE(C2,C3,C4,C5)</f>
+        <v>2.1994E-2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(F7,F8,F9)</f>
+        <v>26.214520666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="B21" s="2">
+        <f>(B7+B8+B9)/5</f>
+        <v>19.524751999999999</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(C7,C8,C9)</f>
+        <v>0.77712000000000003</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="F21">
+        <f>AVERAGE(F11,F12,F13)</f>
+        <v>26.525378333333332</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C27" s="2"/>
+      <c r="A22" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(B11,B12,B13)</f>
+        <v>39.352481666666669</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C11,C12,C13)</f>
+        <v>75.523489999999995</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE(F15,F16,F17)</f>
+        <v>30.291709999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="B23" s="2">
+        <f>AVERAGE(B15,B16,B17)</f>
+        <v>34.363400000000006</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tiemposAlg.xlsx
+++ b/tiemposAlg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UNIVERSIDAD\4.CUARTO\ALG\ALM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFDECE3-C7D8-47AE-BAA2-B4DD49276AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECD143E-22DD-4EC5-A318-036D3E9CD61D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="17280" windowHeight="8964" xr2:uid="{AAA9FB15-D1BF-43F7-A2D8-C46FE27B5817}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAA9FB15-D1BF-43F7-A2D8-C46FE27B5817}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>levesteinTree_Word_PD</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>iluminación%5</t>
-  </si>
-  <si>
-    <t>33,1727 - 58,28561</t>
   </si>
   <si>
     <t>alexander@1</t>
@@ -130,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,14 +138,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,17 +182,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,6 +210,2049 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Levenstein</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>levesteinTree_Word_PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26.668543999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.524751999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.352481666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.363400000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF6F-4D35-A2D4-6867BB8055FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>levesteinTrie_Word_Ramificacion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$20:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.1994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77712000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.523489999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF6F-4D35-A2D4-6867BB8055FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="403483456"/>
+        <c:axId val="403480176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="403483456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403480176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="403480176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403483456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Damerau</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dam_levesteinTree_Word_PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$E$20:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$20:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.099334500000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.214520666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.525378333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.291709999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0700-481B-9FFA-3B83DD2A7180}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dam_levesteinTrie_Word_Ramificacion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$E$20:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$20:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3024249999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47823842333333338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.571757733333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0700-481B-9FFA-3B83DD2A7180}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="416707216"/>
+        <c:axId val="416714760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="416707216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416714760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="416714760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416707216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA451AD4-A556-4A14-86A3-C19AC15B8248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2026920</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D04393-1A7C-47E0-A113-F43EA4A14C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,10 +2552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12A8F6-B260-4786-BDB7-8DC433D822BD}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,14 +2576,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -558,16 +2592,18 @@
       <c r="C2">
         <v>2.3970000000000002E-2</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
         <v>30.44511</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4">
+        <v>1.7950000000000001E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -576,34 +2612,38 @@
       <c r="C3">
         <v>1.6029999999999999E-2</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
         <v>37.790039999999998</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4">
+        <v>1.205E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>24.1998</v>
       </c>
       <c r="C4">
         <v>2.7959999999999999E-2</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
         <v>20.119997999999999</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4">
+        <v>1.201E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -612,22 +2652,24 @@
       <c r="C5">
         <v>2.0015999999999999E-2</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4">
         <v>24.042190000000002</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4">
+        <v>1.0087E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -636,16 +2678,18 @@
       <c r="C7">
         <v>0.71555999999999997</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4">
         <v>30.188441000000001</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="4">
+        <v>0.58609</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -654,16 +2698,18 @@
       <c r="C8">
         <v>0.79654000000000003</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4">
         <v>23.753399999999999</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4">
+        <v>0.43757400000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -672,22 +2718,24 @@
       <c r="C9">
         <v>0.81925999999999999</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4">
         <v>24.701720999999999</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="4">
+        <v>0.41105127000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -696,16 +2744,18 @@
       <c r="C11">
         <v>69.973579999999998</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4">
         <v>30.194710000000001</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="4">
+        <v>35.733130899999999</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -714,16 +2764,18 @@
       <c r="C12">
         <v>56.848529999999997</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4">
         <v>23.737580000000001</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4">
+        <v>32.6135959</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -732,80 +2784,196 @@
       <c r="C13">
         <v>99.748360000000005</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4">
         <v>25.643844999999999</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="4">
+        <v>32.3685464</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="B15" s="3">
+        <v>33.172699999999999</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5">
         <v>30.01848</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>45.505139999999997</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="C16">
+        <v>200</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4">
         <v>36.918849999999999</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16">
+        <v>200</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17">
         <v>24.41236</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="4">
         <v>23.937799999999999</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17">
+        <v>200</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="3"/>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
+      <c r="A20" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="B20">
+        <f>(B2+B3+B4+B5)/5</f>
+        <v>26.668543999999997</v>
+      </c>
+      <c r="C20" s="2">
+        <f>AVERAGE(C2,C3,C4,C5)</f>
+        <v>2.1994E-2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(F2,F3,F4,F5)</f>
+        <v>28.099334500000001</v>
+      </c>
+      <c r="G20">
+        <f>AVERAGE(G2,G3,G4,G5)</f>
+        <v>1.3024249999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="B21" s="2">
+        <f>(B7+B8+B9)/5</f>
+        <v>19.524751999999999</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(C7,C8,C9)</f>
+        <v>0.77712000000000003</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F21">
+        <f>AVERAGE(F7,F8,F9)</f>
+        <v>26.214520666666669</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(G7,G8,G9)</f>
+        <v>0.47823842333333338</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(B11,B12,B13)</f>
+        <v>39.352481666666669</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C11,C12,C13)</f>
+        <v>75.523489999999995</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE(F11,F12,F13)</f>
+        <v>26.525378333333332</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(G11,G12,G13)</f>
+        <v>33.571757733333335</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C27" s="2"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="B23" s="2">
+        <f>AVERAGE(B15,B16,B17)</f>
+        <v>34.363400000000006</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(F15,F16,F17)</f>
+        <v>30.291709999999998</v>
+      </c>
+      <c r="G23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>